--- a/automationExerciceWebsiteProject/data/dataAutomationExercise.xlsx
+++ b/automationExerciceWebsiteProject/data/dataAutomationExercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E31C3-CF85-4D32-8287-DB50FB61068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB549A28-F303-4F59-864E-C47BDD235B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1572" yWindow="372" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <t>email</t>
   </si>
   <si>
-    <t>sonia17@gmail.com</t>
+    <t>sonia19@gmail.com</t>
   </si>
 </sst>
 </file>
